--- a/biology/Zoologie/Johannes_Cornelis_Hendrik_de_Meijere/Johannes_Cornelis_Hendrik_de_Meijere.xlsx
+++ b/biology/Zoologie/Johannes_Cornelis_Hendrik_de_Meijere/Johannes_Cornelis_Hendrik_de_Meijere.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Cornelis Hendrik de Meijere (Deventer 1er avril 1866–6 novembre 1947 (à 81 ans) Amsterdam), est un zoologiste et entomologiste néerlandais, au Royaume des Pays-Bas, et un professeur et un recteur de l'Université d'Amsterdam.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De Meijere était membre de la famille patricienne De Meijere et fils du pasteur révérend Johannes Cornelis de Meijere (1834-1911) et Hendrika Alida Wonders (1834-1909). Il a épousé Prijna Johanna Klasina van Dam (1875-1953) en 1897, dont deux filles sont nées.
 De Meijere est diplômé en biologie de l'Université d'Amsterdam en 1891, puis devient assistant du professeur Max Weber et obtient son doctorat à Amsterdam en 1893 avec la thèse « Sur les poils des mammifères » : en particulier sur leur mode d'arrangement. De 1908 à 1921, il fut professeur extraordinaire de zoologie technique, à partir de 1921 professeur titulaire d'entomologie, de génétique et de zoologie. Il est resté professeur jusqu'en 1936 et a également été recteur magnificus de l'Université d'Amsterdam de 1928 à 1929. Entre 1896 et 1921, il est conservateur du musée Artis. En 1935, il fit don de sa propre collection de diptères au musée zoologique d'Amsterdam.
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De Meijere était Chevalier de l'Ordre du Lion néerlandais et Officier de l'Ordre d'Orange-Nassau.
 </t>
@@ -574,13 +590,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Over de haren der zoogdieren: in 't bijzonder over hunne wijze van rangschikking. Leiden, 1933.
 [co-auteur] Nieuwe naamlijst van Nederlandsche Diptera. 's-Gravenhage, 1898.
 Die Echinoidea der Siboga-Expedition. Leiden, 1904.
 Over het belang van academisch onderwijs in de entomologie. Amsterdam, 1906.
-Studien über sudostasiatische Dipteren. 16 delen. 's-Gravenhage, [1907-1924][1].
+Studien über sudostasiatische Dipteren. 16 delen. 's-Gravenhage, [1907-1924].
 De studie der insecten-biologie. Haarlem, 1908.
 Veranderlijkheid in eenheid. Amsterdam, 1929 (Rede 297e herdenking stichtingsdag Universiteit van Amsterdam).
 Verslag van de lotgevallen der Universiteit van Amsterdam gedurende den cursus 1928-1929. Amsterdam, 1929 (Rede bij de overdracht van het rectoraat op den 16en september 1929).
